--- a/SuppXLS/Scen_ELC_CO2_BOUND.xlsx
+++ b/SuppXLS/Scen_ELC_CO2_BOUND.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_009\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1D3476F-4806-418C-8331-D016A2AA0F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC077854-7EBE-433F-BC51-88B0B3289EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELCCO2_BND" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,13 +31,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -178,12 +181,18 @@
   </si>
   <si>
     <t>DemoS_009</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>CCSU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,8 +304,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,14 +326,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>81915</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>184886</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -339,8 +348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="1739266"/>
-          <a:ext cx="7463790" cy="741145"/>
+          <a:off x="619125" y="2148841"/>
+          <a:ext cx="7037070" cy="718285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,33 +790,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:O31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -820,7 +829,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -870,7 +879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -884,6 +893,9 @@
         <f>G22*(1-R4)</f>
         <v>527790.24270266492</v>
       </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
       <c r="O4" t="s">
         <v>18</v>
       </c>
@@ -891,7 +903,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -905,6 +917,9 @@
         <f>I22*(1-R5)</f>
         <v>296028.21521281922</v>
       </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
       <c r="O5" t="s">
         <v>18</v>
       </c>
@@ -912,7 +927,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -929,17 +944,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -983,7 +1014,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1028,7 +1059,7 @@
       </c>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>32</v>
       </c>
@@ -1073,7 +1104,7 @@
       </c>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1116,7 +1147,7 @@
       <c r="O22" s="7"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -1161,7 +1192,7 @@
       </c>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -1206,7 +1237,7 @@
       </c>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -1251,7 +1282,7 @@
       </c>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1296,7 +1327,7 @@
       </c>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -1341,7 +1372,7 @@
       </c>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -1380,7 +1411,7 @@
       <c r="O28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -1425,7 +1456,7 @@
       </c>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -1470,7 +1501,7 @@
       </c>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -1515,10 +1546,10 @@
       </c>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="Q32" s="7"/>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1531,7 +1562,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1544,7 +1575,7 @@
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -1557,7 +1588,7 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -1570,7 +1601,7 @@
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
     </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -1583,7 +1614,7 @@
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -1596,7 +1627,7 @@
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -1609,7 +1640,7 @@
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -1622,7 +1653,7 @@
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
     </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -1635,7 +1666,7 @@
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
     </row>
-    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -1648,7 +1679,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
     </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -1661,7 +1692,7 @@
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
